--- a/data/4/20230615-a1r-nc-session4-a_transcript.xlsx
+++ b/data/4/20230615-a1r-nc-session4-a_transcript.xlsx
@@ -1,421 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marlibosler/Desktop/Session 4 NC/06:15/excel 06:15/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15BDC10-C10B-8045-81FA-4977D60DAF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - 20230615-a1r-nc-sessi" sheetId="1" r:id="rId1"/>
-    <sheet name="proposal" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="109">
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>"2:06"</t>
-  </si>
-  <si>
-    <t>Same crew again. Thanks Ace.</t>
-  </si>
-  <si>
-    <t>"2:17"</t>
-  </si>
-  <si>
-    <t>Who are we missing? I think we're missing some people.</t>
-  </si>
-  <si>
-    <t>"2:26"</t>
-  </si>
-  <si>
-    <t>Oh, mr. Somebody I'm he hasn't been on my call since the second call.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yeah, that's it.</t>
-  </si>
-  <si>
-    <t>"2:33"</t>
-  </si>
-  <si>
-    <t>Yeah, that mr. Burbank. I</t>
-  </si>
-  <si>
-    <t>"12:42"</t>
-  </si>
-  <si>
-    <t>I mean, if I had my way, I would I'd get rid of super Pacs here and say, none of that here. And then I would allow individual contributions to be just unlimited, right? So, if you really feel strongly about giving money, you should put it under your name and that under some shell company that, you know, who knows what it was. I would, that would be my, my opinion.</t>
-  </si>
-  <si>
-    <t>"13:07"</t>
-  </si>
-  <si>
-    <t>I like your opinion. I like your penis and I agree with your opinion.</t>
-  </si>
-  <si>
-    <t>"13:15"</t>
-  </si>
-  <si>
-    <t>I think the big problem is is that if the only way to get rid of citizens, united is a constitutional amendment. I mean, we've heard it all before, you know, people don't think it's possible. But if there's any way to repeal that without an amendment, and I mean, there has to be a way because we see all other kinds of, you know, Supreme Court ruling to overturn. So there has to be a way to overturn that without without some kind of Constitutional Amendment.</t>
-  </si>
-  <si>
-    <t>"13:41"</t>
-  </si>
-  <si>
-    <t>I'm with you, in terms of overturning, the influence of citizens, united decision.</t>
-  </si>
-  <si>
-    <t>"13:54"</t>
-  </si>
-  <si>
-    <t>I'm sure it said, but I missed saw that. The citizens united is that just the one where they say, it's free speech, it is that extend it to organizations. Okay. So that's been my big. That's my big struggle. Here is like, I do that. Doesn't make sense to me. Like, spending money, equaling free speech. What does it make sense to me? Is that one times they had about like, well, some people, you know, don't want their names to be published. So it's like, well, then it's not speech. So either, you got to let it be published or you need to</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Just ideally not do it because that amount of money is absolutely like vaguely sickening to me. That's a lot of money but if it makes sense of speech, but that means we need to be okay, disclosing it, because that's the whole point speech.</t>
-  </si>
-  <si>
-    <t>"14:38"</t>
-  </si>
-  <si>
-    <t>Yeah, I think that's a big problem is it's a lot of it as Anonymous speech, right? And the research has shown us is that when people are Anonymous, you get all kinds of crazy opinions and I mean that that being said someone argues that you're getting the true opinion. But a lot of times when it's Anonymous speech, manages, any kind of social norms, go out the window. It's crazy.</t>
-  </si>
-  <si>
-    <t>"16:55"</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">I don't like giving any kind of public money to any kind of campaign Finance. So, you know, every year and your taxes, they asked you want to donate $2 to the presidential fund always hit. No on that. I I like the idea of, you know, making it more transparent. You have like, open Secrets, I think it's </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>opensecrets.org</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> and they try to help you like take a look and see who took money from where but their data is very limited to what they're able to kind of get. And it's really a private entity trying to do it. Like I think the</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> it should be the one that's publishing this data saying hey Canada took money from XYZ so you can follow the money.</t>
-  </si>
-  <si>
-    <t>"17:32"</t>
-  </si>
-  <si>
-    <t>I think we're going to create more trust and we need more trust and our nation. In my opinion if we have more transparency around campaign contributions. So I'm full I'm for full disclosure of names of contributors</t>
-  </si>
-  <si>
-    <t>"17:53"</t>
-  </si>
-  <si>
-    <t>I'm with a so I think that the, you know, the campaign get so many modern money donations from corporate and how much fun to do, they need to run a campaign. But as far as individual I mean I don't donate is like going out subjects like going to the grocery store asking for donation into Double. Jeopardy is ending the double donation, the company gets that. I did 941 ft form for the iOS for</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Action and Earth who donated a few Center dollar did not eligible for that, donation campaign. But yeah, I was always checked now</t>
-  </si>
-  <si>
-    <t>"18:35"</t>
-  </si>
-  <si>
-    <t>I agree with anything that gives full disclosure about who the contributors are and I am to against any public funds being used for the campaigns.</t>
-  </si>
-  <si>
-    <t>"18:50"</t>
-  </si>
-  <si>
-    <t>You know, here's something interesting to throughout their what, if they allowed public campaign, you know, you could fund it via public money, but that would be the only money you could fund it from. You couldn't take money from outside. I might be convinced a little bit more to go with something like that. If that was the absolute only money they ever got, right? Just like, I'm Susan number. Every candidate gets a million dollars to run and they can't take any more money. I might, you might be able to convince me here but I would have to see how it pans out.</t>
-  </si>
-  <si>
-    <t>"19:19"</t>
-  </si>
-  <si>
-    <t>I've had the same thought crossed my mind because the amounts that campaign, some, some people spent on campaigns seems obscene to me. And also, I think it might kind of democratize, or level the playing field a little bit. So that we'd really listen to the candidate instead of all the ads that were inundated by</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> So I'd be open to exploring that.</t>
-  </si>
-  <si>
-    <t>"20:32"</t>
-  </si>
-  <si>
-    <t>I think this is totally misses the Mark. I would actually probably be against any kind of. I just want to do away with districting period, right? I think, if you adopted, something, either, ranked Choice, voting or even if you did go to like a national popular vote, you would get rid of this problem that you have of like, hey, you live in a blue District. So, even though you vote, read your vote, doesn't matter, right? Like all the other solutions that just get rid of this problem here. I would be much more in favor of I think this is just slapping a Band-Aid.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> On it and realistically, we already supposedly have laws that are supposed to make it fair. They figured out those laws so doing more is just they're going to figure out a way around it again.</t>
-  </si>
-  <si>
-    <t>"21:14"</t>
-  </si>
-  <si>
-    <t>Actually New Mexico did have a this time a commission that that both parties had a voice in setting up and as well as people who were well respected as Independence, they made recommendations they didn't have, they didn't have binding Authority, they made recommendations to the legislature. Legislature didn't quite take them, but I think it made a much more moderate</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starting plan than they otherwise would have had.</t>
-  </si>
-  <si>
-    <t>"23:07"</t>
-  </si>
-  <si>
-    <t>I guess I'm against obligatory voting that just it kind of Galls me maybe because I'm a you know a citizen of the United States and I'm not I'm not in favor of 16 year olds voting for the school board.</t>
-  </si>
-  <si>
-    <t>"23:31"</t>
-  </si>
-  <si>
-    <t>Okay, let's see. Yes, I am against finding someone making voting mandated obligation and also I'm against them 16 year old golden for school boards, but the other two I've Loved making the national heart making Election Day a national holiday as well as third party in Independence. Make it easier for them to get on the ballot.</t>
-  </si>
-  <si>
-    <t>"23:54"</t>
-  </si>
-  <si>
-    <t>For me, I'm also against, I don't think that, you know, to me you can lead a horse to water but you can't make it drink here. So we shouldn't Force anybody to vote one way or another. We should definitely encourage them to. We should try to make it easy to do. So, I don't know if making a national holiday will help. I mean my feeling on that, is that if you make it a national holiday, they'll start treating like they treat any other national holiday, right? They'll plan to be out of town because hey, it's a three day weekend or or whatnot. So</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> So, yeah, well, it sounds like a good idea in theory. I don't think you'll realistically get anything out of it. I'd be more in favor of like, you know, getting more people to mail, mail-in voter absentee vote.</t>
-  </si>
-  <si>
-    <t>"24:35"</t>
-  </si>
-  <si>
-    <t>"24:51"</t>
-  </si>
-  <si>
-    <t>If you're speaking Alex, I can't hear you.</t>
-  </si>
-  <si>
-    <t>"24:56"</t>
-  </si>
-  <si>
-    <t>Okay, for me School Board age 16, I'm against it. We already have issues with badly reformed counting, like should phone battery, so it will get people to go out to war but national holiday, you know, some federal and state they already give. You know, so many hours, you can go go to bed. I put under to the polls and vote but I guess that could go with the</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> For the federal holiday. I mean, it may be about to devote more</t>
-  </si>
-  <si>
-    <t>"25:34"</t>
-  </si>
-  <si>
-    <t>I think I have mixed feelings about the election day as a holiday. It if it seems to me that if we open up different ways of collecting like you know early voting a mail-in voting, it may not be quite a as an impediment, not to have a holiday on that day. On the other hand I wouldn't like to see anything stand in the way of people voting.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> And I am in favor of opening up third-party candidate. Making easier for other people other parties to wrong.</t>
-  </si>
-  <si>
-    <t>"26:13"</t>
-  </si>
-  <si>
-    <t>And the reason why I said making the likud Election Day, a national holiday is actually it's on a Tuesday in here in Massachusetts. All schools are closed on the that day. Anyway, on Election Day.</t>
-  </si>
-  <si>
-    <t>"26:27"</t>
-  </si>
-  <si>
-    <t>Good morning. I totally forgot. It was on a Tuesday so maybe you won't see those people trying to do like a three-day weekend, but yeah, I mean, if there was some way like I would be in favor of saying, hey, expand voting days to be like three days, right? So, you know, a lot of people to vote Sunday, Monday, Tuesday, right. And hopefully, you're going to have one of those days off, but I don't know. I'd be interested to see what they come up with.</t>
-  </si>
-  <si>
-    <t>"26:51"</t>
-  </si>
-  <si>
-    <t>I feel like a lot of people who can't get time off to vote, are you know who's voting hours? Don't line up with one. The stuff is open are the sort of people who are going to be forced to work regardless of whether it's a national holiday like they might get paid time and a half but that doesn't help you vote. So that's just a point that I feel like we haven't touched on yet. I also just curious why everyone's against six year and year olds voting for school board? Like I have no opinion on this. I have don't have children. I don't really. I mean, I care. Probably what the school board?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Does Bill like where I'm from? No one ever cared, even who was on the school board? So seems like a really baby step in the voting but I'm just curious what the thought processes.</t>
-  </si>
-  <si>
-    <t>"31:44"</t>
-  </si>
-  <si>
-    <t>You know, the only thing I might want to add to this question that I'd be interested in is is like, is there a way to get more transparency in a Super PAC as well? I don't know if that's kind of in the same vein as your question or not. But I kind of do. I think if you I think if you can get the names hear or see who's doing it? I think you solve a lot of the problems too.</t>
-  </si>
-  <si>
-    <t>"32:16"</t>
-  </si>
-  <si>
-    <t>I mean, I guess I know you can. I'm sure you can you know, increase, transparency without Amendment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> That's two questions.</t>
-  </si>
-  <si>
-    <t>"32:32"</t>
-  </si>
-  <si>
-    <t>Well, and maybe maybe make it to questions because they're really just related their related questions.</t>
-  </si>
-  <si>
-    <t>"33:40"</t>
-  </si>
-  <si>
-    <t>You know, as I thought about this more like there's a whole bunch of may be unintended consequences with this. Like, on one hand, I am really a big fan of saying, make this totally transparent, but by the same token, I'm trying to think. Like the closest example, we may be ever had to something like this is when I think it was like New York, made the gun registration database open, right? And you could figure out who is a registered gun owner and kind of unintended consequence of that was, is that organizations, who maybe weren't in favor of gun owners.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Shipwright or like, Hey, we're going to use this almost. It's like a blacklist of people here who were going to, you know,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> avoid doing business with, For Better or Worse, right? Like, I mean, I make no opinion on, you know, their right to do whatever, right. But,</t>
-  </si>
-  <si>
-    <t>"34:26"</t>
-  </si>
-  <si>
-    <t>Kind of by that same token. Like in theory, we have laws that say Hey, you know if you're a Democrat or Republican you're not allowed to be discriminated against in hiring. But once the list is out there, I don't know. I mean I'd have to imagine that. It's not a problem that like small donors see, right? I'd have to imagine what you're more likely going to get is you're going to see where like the Jeff Bezos of the world or like the ultra multi-millionaires, where they putting their money, that that would be, my hope is what I would like to see.</t>
-  </si>
-  <si>
-    <t>"35:48"</t>
-  </si>
-  <si>
-    <t>Of the last time I get to talk to one another, it's been really great talking to you and kind of learn a little bit more, appreciate it really happy to be part of this.</t>
-  </si>
-  <si>
-    <t>"35:58"</t>
-  </si>
-  <si>
-    <t>I feel the same and, but I feel frustrated that we didn't have quite as much time to talk with each other, as I think would have been productive.</t>
-  </si>
-  <si>
-    <t>"36:08"</t>
-  </si>
-  <si>
-    <t>I agree. It was nice meeting. You all as well. Hopefully, we'll come across each other's paths again.</t>
-  </si>
-  <si>
-    <t>"36:15"</t>
-  </si>
-  <si>
-    <t>"36:49"</t>
-  </si>
-  <si>
-    <t>The other guy we were missing today was Nick.</t>
-  </si>
-  <si>
-    <t>"36:54"</t>
-  </si>
-  <si>
-    <t>I'm glad you said that because I kept on saying yeah, but I think there was somebody else so I'm not crazy in that regard. Then</t>
-  </si>
-  <si>
-    <t>"37:02"</t>
-  </si>
-  <si>
-    <t>No, you're not. Yes, it was.</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>proposal</t>
-  </si>
-  <si>
-    <t>Implement RCV as an alternative method both to elected officials and representatives at all levels</t>
-  </si>
-  <si>
-    <t>Change the primary system</t>
-  </si>
-  <si>
-    <t>Use proportional representatives to elect elected officials</t>
-  </si>
-  <si>
-    <t>Change the current electoral college</t>
-  </si>
-  <si>
-    <t>Implement more accessibility to voting</t>
-  </si>
-  <si>
-    <t>Restore federal and state voting rights to citizens with felony convictions upon their release from prison</t>
-  </si>
-  <si>
-    <t>Implement voting standards that are less strict</t>
-  </si>
-  <si>
-    <t>Implement more measures to address voter fraud</t>
-  </si>
-  <si>
-    <t>Implement more fairness and transparency in the election process</t>
-  </si>
-  <si>
-    <t>Implement limits on financing individual candidates and parties</t>
-  </si>
-  <si>
-    <t>Increase in public funding and financing for campaigns</t>
-  </si>
-  <si>
-    <t>Implement a term limit for Supreme Court Justices</t>
-  </si>
-  <si>
-    <t>Increase opportunities for learning about civic education in schools</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="5">
     <font>
+      <name val="Helvetica Neue"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
+      <u val="single"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -491,47 +126,47 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -600,14 +235,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1682,763 +1309,912 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IS60"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="166.6640625" style="1" customWidth="1"/>
-    <col min="4" max="253" width="8.33203125" style="1" customWidth="1"/>
+    <col width="6.1640625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="7" customWidth="1" style="1" min="2" max="2"/>
+    <col width="166.6640625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="8.33203125" customWidth="1" style="1" min="4" max="253"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+    <row r="1" ht="20.25" customHeight="1" s="10">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>speaker</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" s="10">
+      <c r="A2" s="3" t="n">
         <v>9648</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>"2:06"</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>Same crew again. Thanks Ace.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1" s="10">
+      <c r="A3" s="3" t="n">
         <v>48647</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>"2:17"</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Who are we missing? I think we're missing some people.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1" s="10">
+      <c r="A4" s="3" t="n">
         <v>48617</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>"2:26"</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Oh, mr. Somebody I'm he hasn't been on my call since the second call.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" s="10">
+      <c r="A5" s="3" t="n">
         <v>48617</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>"2:26"</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Yeah, that's it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1" s="10">
+      <c r="A6" s="3" t="n">
         <v>48617</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>"2:26"</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n"/>
+    </row>
+    <row r="7" ht="20" customHeight="1" s="10">
+      <c r="A7" s="3" t="n">
         <v>9648</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>"2:33"</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, that mr. Burbank. I</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1" s="10">
+      <c r="A8" s="3" t="n">
         <v>9648</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>"12:42"</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>I mean, if I had my way, I would I'd get rid of super Pacs here and say, none of that here. And then I would allow individual contributions to be just unlimited, right? So, if you really feel strongly about giving money, you should put it under your name and that under some shell company that, you know, who knows what it was. I would, that would be my, my opinion.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1" s="10">
+      <c r="A9" s="3" t="n">
         <v>48617</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>"13:07"</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>I like your opinion. I like your penis and I agree with your opinion.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1" s="10">
+      <c r="A10" s="3" t="n">
         <v>9648</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>"13:15"</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>I think the big problem is is that if the only way to get rid of citizens, united is a constitutional amendment. I mean, we've heard it all before, you know, people don't think it's possible. But if there's any way to repeal that without an amendment, and I mean, there has to be a way because we see all other kinds of, you know, Supreme Court ruling to overturn. So there has to be a way to overturn that without without some kind of Constitutional Amendment.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1" s="10">
+      <c r="A11" s="3" t="n">
         <v>48647</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>"13:41"</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n"/>
+    </row>
+    <row r="12" ht="20" customHeight="1" s="10">
+      <c r="A12" s="3" t="n">
         <v>48647</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>"13:41"</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>I'm with you, in terms of overturning, the influence of citizens, united decision.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1" s="10">
+      <c r="A13" s="3" t="n">
         <v>48632</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>"13:54"</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>I'm sure it said, but I missed saw that. The citizens united is that just the one where they say, it's free speech, it is that extend it to organizations. Okay. So that's been my big. That's my big struggle. Here is like, I do that. Doesn't make sense to me. Like, spending money, equaling free speech. What does it make sense to me? Is that one times they had about like, well, some people, you know, don't want their names to be published. So it's like, well, then it's not speech. So either, you got to let it be published or you need to</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1" s="10">
+      <c r="A14" s="3" t="n">
         <v>48632</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>"13:54"</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Just ideally not do it because that amount of money is absolutely like vaguely sickening to me. That's a lot of money but if it makes sense of speech, but that means we need to be okay, disclosing it, because that's the whole point speech.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1" s="10">
+      <c r="A15" s="3" t="n">
         <v>9648</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>"14:38"</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I think that's a big problem is it's a lot of it as Anonymous speech, right? And the research has shown us is that when people are Anonymous, you get all kinds of crazy opinions and I mean that that being said someone argues that you're getting the true opinion. But a lot of times when it's Anonymous speech, manages, any kind of social norms, go out the window. It's crazy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1" s="10">
+      <c r="A16" s="3" t="n">
         <v>9648</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>"16:55"</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>I don't like giving any kind of public money to any kind of campaign Finance. So, you know, every year and your taxes, they asked you want to donate $2 to the presidential fund always hit. No on that. I I like the idea of, you know, making it more transparent. You have like, open Secrets, I think it's opensecrets.org and they try to help you like take a look and see who took money from where but their data is very limited to what they're able to kind of get. And it's really a private entity trying to do it. Like I think the</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1" s="10">
+      <c r="A17" s="3" t="n">
         <v>9648</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>"16:55"</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> it should be the one that's publishing this data saying hey Canada took money from XYZ so you can follow the money.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1" s="10">
+      <c r="A18" s="3" t="n">
         <v>48647</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>"17:32"</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>I think we're going to create more trust and we need more trust and our nation. In my opinion if we have more transparency around campaign contributions. So I'm full I'm for full disclosure of names of contributors</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1" s="10">
+      <c r="A19" s="3" t="n">
         <v>9408</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>"17:53"</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>I'm with a so I think that the, you know, the campaign get so many modern money donations from corporate and how much fun to do, they need to run a campaign. But as far as individual I mean I don't donate is like going out subjects like going to the grocery store asking for donation into Double. Jeopardy is ending the double donation, the company gets that. I did 941 ft form for the iOS for</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1" s="10">
+      <c r="A20" s="3" t="n">
         <v>9408</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>"17:53"</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Action and Earth who donated a few Center dollar did not eligible for that, donation campaign. But yeah, I was always checked now</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1" s="10">
+      <c r="A21" s="3" t="n">
         <v>48617</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>"18:35"</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>I agree with anything that gives full disclosure about who the contributors are and I am to against any public funds being used for the campaigns.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="1" s="10">
+      <c r="A22" s="3" t="n">
         <v>9648</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>"18:50"</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>You know, here's something interesting to throughout their what, if they allowed public campaign, you know, you could fund it via public money, but that would be the only money you could fund it from. You couldn't take money from outside. I might be convinced a little bit more to go with something like that. If that was the absolute only money they ever got, right? Just like, I'm Susan number. Every candidate gets a million dollars to run and they can't take any more money. I might, you might be able to convince me here but I would have to see how it pans out.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1" s="10">
+      <c r="A23" s="3" t="n">
         <v>48647</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>"19:19"</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>I've had the same thought crossed my mind because the amounts that campaign, some, some people spent on campaigns seems obscene to me. And also, I think it might kind of democratize, or level the playing field a little bit. So that we'd really listen to the candidate instead of all the ads that were inundated by</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="20" customHeight="1" s="10">
+      <c r="A24" s="3" t="n">
         <v>48647</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>"19:19"</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> So I'd be open to exploring that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="20" customHeight="1" s="10">
+      <c r="A25" s="3" t="n">
         <v>9648</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>"20:32"</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>I think this is totally misses the Mark. I would actually probably be against any kind of. I just want to do away with districting period, right? I think, if you adopted, something, either, ranked Choice, voting or even if you did go to like a national popular vote, you would get rid of this problem that you have of like, hey, you live in a blue District. So, even though you vote, read your vote, doesn't matter, right? Like all the other solutions that just get rid of this problem here. I would be much more in favor of I think this is just slapping a Band-Aid.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="20" customHeight="1" s="10">
+      <c r="A26" s="3" t="n">
         <v>9648</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>"20:32"</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> On it and realistically, we already supposedly have laws that are supposed to make it fair. They figured out those laws so doing more is just they're going to figure out a way around it again.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1" s="10">
+      <c r="A27" s="3" t="n">
         <v>48647</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>"21:14"</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>Actually New Mexico did have a this time a commission that that both parties had a voice in setting up and as well as people who were well respected as Independence, they made recommendations they didn't have, they didn't have binding Authority, they made recommendations to the legislature. Legislature didn't quite take them, but I think it made a much more moderate</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="20" customHeight="1" s="10">
+      <c r="A28" s="3" t="n">
         <v>48647</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>"21:14"</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> starting plan than they otherwise would have had.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="20" customHeight="1" s="10">
+      <c r="A29" s="3" t="n">
         <v>48647</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>"23:07"</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>I guess I'm against obligatory voting that just it kind of Galls me maybe because I'm a you know a citizen of the United States and I'm not I'm not in favor of 16 year olds voting for the school board.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1" s="10">
+      <c r="A30" s="3" t="n">
         <v>48617</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3">
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>"23:31"</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>Okay, let's see. Yes, I am against finding someone making voting mandated obligation and also I'm against them 16 year old golden for school boards, but the other two I've Loved making the national heart making Election Day a national holiday as well as third party in Independence. Make it easier for them to get on the ballot.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1" s="10">
+      <c r="A31" s="3" t="n">
         <v>9648</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3">
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>"23:54"</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>For me, I'm also against, I don't think that, you know, to me you can lead a horse to water but you can't make it drink here. So we shouldn't Force anybody to vote one way or another. We should definitely encourage them to. We should try to make it easy to do. So, I don't know if making a national holiday will help. I mean my feeling on that, is that if you make it a national holiday, they'll start treating like they treat any other national holiday, right? They'll plan to be out of town because hey, it's a three day weekend or or whatnot. So</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1" s="10">
+      <c r="A32" s="3" t="n">
         <v>9648</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3">
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>"23:54"</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> So, yeah, well, it sounds like a good idea in theory. I don't think you'll realistically get anything out of it. I'd be more in favor of like, you know, getting more people to mail, mail-in voter absentee vote.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1" s="10">
+      <c r="A33" s="3" t="n">
         <v>48653</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="3">
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>"24:35"</t>
+        </is>
+      </c>
+      <c r="C33" s="5" t="n"/>
+    </row>
+    <row r="34" ht="20" customHeight="1" s="10">
+      <c r="A34" s="3" t="n">
         <v>48653</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="3">
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>"24:35"</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n"/>
+    </row>
+    <row r="35" ht="20" customHeight="1" s="10">
+      <c r="A35" s="3" t="n">
         <v>9648</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="3">
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>"24:51"</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>If you're speaking Alex, I can't hear you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1" s="10">
+      <c r="A36" s="3" t="n">
         <v>9408</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="5"/>
-    </row>
-    <row r="37" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="3">
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>"24:56"</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n"/>
+    </row>
+    <row r="37" ht="20" customHeight="1" s="10">
+      <c r="A37" s="3" t="n">
         <v>9408</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="3">
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>"24:56"</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>Okay, for me School Board age 16, I'm against it. We already have issues with badly reformed counting, like should phone battery, so it will get people to go out to war but national holiday, you know, some federal and state they already give. You know, so many hours, you can go go to bed. I put under to the polls and vote but I guess that could go with the</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="20" customHeight="1" s="10">
+      <c r="A38" s="3" t="n">
         <v>9408</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="3">
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>"24:56"</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> For the federal holiday. I mean, it may be about to devote more</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="20" customHeight="1" s="10">
+      <c r="A39" s="3" t="n">
         <v>48647</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" s="5"/>
-    </row>
-    <row r="40" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="3">
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>"25:34"</t>
+        </is>
+      </c>
+      <c r="C39" s="5" t="n"/>
+    </row>
+    <row r="40" ht="20" customHeight="1" s="10">
+      <c r="A40" s="3" t="n">
         <v>48647</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="3">
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>"25:34"</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>I think I have mixed feelings about the election day as a holiday. It if it seems to me that if we open up different ways of collecting like you know early voting a mail-in voting, it may not be quite a as an impediment, not to have a holiday on that day. On the other hand I wouldn't like to see anything stand in the way of people voting.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="20" customHeight="1" s="10">
+      <c r="A41" s="3" t="n">
         <v>48647</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="3">
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>"25:34"</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> And I am in favor of opening up third-party candidate. Making easier for other people other parties to wrong.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="20" customHeight="1" s="10">
+      <c r="A42" s="3" t="n">
         <v>48617</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="3">
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>"26:13"</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>And the reason why I said making the likud Election Day, a national holiday is actually it's on a Tuesday in here in Massachusetts. All schools are closed on the that day. Anyway, on Election Day.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="20" customHeight="1" s="10">
+      <c r="A43" s="3" t="n">
         <v>9648</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="3">
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>"26:27"</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>Good morning. I totally forgot. It was on a Tuesday so maybe you won't see those people trying to do like a three-day weekend, but yeah, I mean, if there was some way like I would be in favor of saying, hey, expand voting days to be like three days, right? So, you know, a lot of people to vote Sunday, Monday, Tuesday, right. And hopefully, you're going to have one of those days off, but I don't know. I'd be interested to see what they come up with.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="20" customHeight="1" s="10">
+      <c r="A44" s="3" t="n">
         <v>48632</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="3">
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>"26:51"</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t>I feel like a lot of people who can't get time off to vote, are you know who's voting hours? Don't line up with one. The stuff is open are the sort of people who are going to be forced to work regardless of whether it's a national holiday like they might get paid time and a half but that doesn't help you vote. So that's just a point that I feel like we haven't touched on yet. I also just curious why everyone's against six year and year olds voting for school board? Like I have no opinion on this. I have don't have children. I don't really. I mean, I care. Probably what the school board?</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="20" customHeight="1" s="10">
+      <c r="A45" s="3" t="n">
         <v>48632</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="3">
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>"26:51"</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Does Bill like where I'm from? No one ever cared, even who was on the school board? So seems like a really baby step in the voting but I'm just curious what the thought processes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="20" customHeight="1" s="10">
+      <c r="A46" s="3" t="n">
         <v>9648</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="3">
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>"31:44"</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t>You know, the only thing I might want to add to this question that I'd be interested in is is like, is there a way to get more transparency in a Super PAC as well? I don't know if that's kind of in the same vein as your question or not. But I kind of do. I think if you I think if you can get the names hear or see who's doing it? I think you solve a lot of the problems too.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="20" customHeight="1" s="10">
+      <c r="A47" s="3" t="n">
         <v>48632</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="3">
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>"32:16"</t>
+        </is>
+      </c>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>I mean, I guess I know you can. I'm sure you can you know, increase, transparency without Amendment.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="20" customHeight="1" s="10">
+      <c r="A48" s="3" t="n">
         <v>48632</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="3">
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>"32:16"</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> That's two questions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="20" customHeight="1" s="10">
+      <c r="A49" s="3" t="n">
         <v>48647</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="3">
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>"32:32"</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>Well, and maybe maybe make it to questions because they're really just related their related questions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="20" customHeight="1" s="10">
+      <c r="A50" s="3" t="n">
         <v>9648</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="3">
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>"33:40"</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>You know, as I thought about this more like there's a whole bunch of may be unintended consequences with this. Like, on one hand, I am really a big fan of saying, make this totally transparent, but by the same token, I'm trying to think. Like the closest example, we may be ever had to something like this is when I think it was like New York, made the gun registration database open, right? And you could figure out who is a registered gun owner and kind of unintended consequence of that was, is that organizations, who maybe weren't in favor of gun owners.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="20" customHeight="1" s="10">
+      <c r="A51" s="3" t="n">
         <v>9648</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="3">
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>"33:40"</t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Shipwright or like, Hey, we're going to use this almost. It's like a blacklist of people here who were going to, you know,</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="20" customHeight="1" s="10">
+      <c r="A52" s="3" t="n">
         <v>9648</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="3">
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>"33:40"</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> avoid doing business with, For Better or Worse, right? Like, I mean, I make no opinion on, you know, their right to do whatever, right. But,</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="20" customHeight="1" s="10">
+      <c r="A53" s="3" t="n">
         <v>9648</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="3">
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>"34:26"</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>Kind of by that same token. Like in theory, we have laws that say Hey, you know if you're a Democrat or Republican you're not allowed to be discriminated against in hiring. But once the list is out there, I don't know. I mean I'd have to imagine that. It's not a problem that like small donors see, right? I'd have to imagine what you're more likely going to get is you're going to see where like the Jeff Bezos of the world or like the ultra multi-millionaires, where they putting their money, that that would be, my hope is what I would like to see.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="20" customHeight="1" s="10">
+      <c r="A54" s="3" t="n">
         <v>9648</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="3">
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>"35:48"</t>
+        </is>
+      </c>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t>Of the last time I get to talk to one another, it's been really great talking to you and kind of learn a little bit more, appreciate it really happy to be part of this.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="20" customHeight="1" s="10">
+      <c r="A55" s="3" t="n">
         <v>48647</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="3">
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t>"35:58"</t>
+        </is>
+      </c>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t>I feel the same and, but I feel frustrated that we didn't have quite as much time to talk with each other, as I think would have been productive.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="20" customHeight="1" s="10">
+      <c r="A56" s="3" t="n">
         <v>48617</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="3">
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>"36:08"</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t>I agree. It was nice meeting. You all as well. Hopefully, we'll come across each other's paths again.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="20" customHeight="1" s="10">
+      <c r="A57" s="3" t="n">
         <v>48617</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C57" s="5"/>
-    </row>
-    <row r="58" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="3">
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>"36:15"</t>
+        </is>
+      </c>
+      <c r="C57" s="5" t="n"/>
+    </row>
+    <row r="58" ht="20" customHeight="1" s="10">
+      <c r="A58" s="3" t="n">
         <v>9648</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="3">
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>"36:49"</t>
+        </is>
+      </c>
+      <c r="C58" s="4" t="inlineStr">
+        <is>
+          <t>The other guy we were missing today was Nick.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="20" customHeight="1" s="10">
+      <c r="A59" s="3" t="n">
         <v>48647</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="3">
+      <c r="B59" s="4" t="inlineStr">
+        <is>
+          <t>"36:54"</t>
+        </is>
+      </c>
+      <c r="C59" s="4" t="inlineStr">
+        <is>
+          <t>I'm glad you said that because I kept on saying yeah, but I think there was somebody else so I'm not crazy in that regard. Then</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="20" customHeight="1" s="10">
+      <c r="A60" s="3" t="n">
         <v>48617</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>92</v>
+      <c r="B60" s="4" t="inlineStr">
+        <is>
+          <t>"37:02"</t>
+        </is>
+      </c>
+      <c r="C60" s="4" t="inlineStr">
+        <is>
+          <t>No, you're not. Yes, it was.</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C16" r:id="rId1" display="opensecrets.org" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C16" display="opensecrets.org" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5C87C1-9690-8F40-9F4B-7FBC466DD405}">
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A14" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>